--- a/module-3/instructions.xlsx
+++ b/module-3/instructions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saad Yousaf\Desktop\METU NCC\Courses\EEE 446\Lab\Lab 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\METU-NCC-Computer-Architecture\documents\module-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39EAD19-FC1C-49EF-A0E2-1D944771F780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579B3718-C4EC-45B4-BE3D-1CA537E6011D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Structure" sheetId="1" r:id="rId1"/>
@@ -340,7 +340,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,8 +392,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,6 +417,12 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -659,7 +672,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -709,6 +722,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -748,6 +762,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1152,21 +1167,21 @@
       <selection sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="15" width="18.44140625" customWidth="1"/>
+    <col min="1" max="15" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-    </row>
-    <row r="2" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>4</v>
       </c>
@@ -1183,7 +1198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -1200,17 +1215,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+    <row r="4" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-    </row>
-    <row r="6" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1220,12 +1235,12 @@
       <c r="C6" s="5">
         <v>3</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="27">
         <v>6</v>
       </c>
-      <c r="E6" s="27"/>
-    </row>
-    <row r="7" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="28"/>
+    </row>
+    <row r="7" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1235,48 +1250,48 @@
       <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="29"/>
-    </row>
-    <row r="8" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-    </row>
-    <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>4</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="21">
         <v>12</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-    </row>
-    <row r="11" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-    </row>
-    <row r="12" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B11:E11"/>
@@ -1294,24 +1309,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44D080D-8FD1-4A09-A541-CF81D00D5AF8}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="76.77734375" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="83.7109375" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
@@ -1334,7 +1349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
@@ -1356,8 +1371,9 @@
       <c r="G2" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
@@ -1379,8 +1395,9 @@
       <c r="G3" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
@@ -1402,8 +1419,9 @@
       <c r="G4" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
@@ -1425,8 +1443,9 @@
       <c r="G5" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
@@ -1448,8 +1467,9 @@
       <c r="G6" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
@@ -1471,8 +1491,9 @@
       <c r="G7" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>91</v>
       </c>
@@ -1495,7 +1516,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
@@ -1517,8 +1538,9 @@
       <c r="G9" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>75</v>
       </c>
@@ -1540,8 +1562,9 @@
       <c r="G10" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>16</v>
       </c>
@@ -1563,8 +1586,9 @@
       <c r="G11" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>17</v>
       </c>
@@ -1586,8 +1610,9 @@
       <c r="G12" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
@@ -1609,8 +1634,9 @@
       <c r="G13" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>19</v>
       </c>
@@ -1632,8 +1658,9 @@
       <c r="G14" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>20</v>
       </c>
@@ -1655,8 +1682,9 @@
       <c r="G15" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>69</v>
       </c>
@@ -1678,8 +1706,9 @@
       <c r="G16" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>71</v>
       </c>
@@ -1701,8 +1730,9 @@
       <c r="G17" s="15" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>72</v>
       </c>
@@ -1724,8 +1754,9 @@
       <c r="G18" s="15" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>70</v>
       </c>
@@ -1747,8 +1778,9 @@
       <c r="G19" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>73</v>
       </c>
@@ -1770,8 +1802,9 @@
       <c r="G20" s="15" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>74</v>
       </c>
@@ -1793,8 +1826,9 @@
       <c r="G21" s="14" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>21</v>
       </c>
@@ -1817,7 +1851,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>22</v>
       </c>
@@ -1840,7 +1874,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>23</v>
       </c>
@@ -1863,7 +1897,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>

--- a/module-3/instructions.xlsx
+++ b/module-3/instructions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\METU-NCC-Computer-Architecture\documents\module-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saad Yousaf\Desktop\METU NCC\Courses\EEE 446\Lab\Lab 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579B3718-C4EC-45B4-BE3D-1CA537E6011D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39EAD19-FC1C-49EF-A0E2-1D944771F780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Structure" sheetId="1" r:id="rId1"/>
@@ -340,7 +340,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,15 +392,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,12 +410,6 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -672,7 +659,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -722,7 +709,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -762,7 +748,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1167,21 +1152,21 @@
       <selection sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="15" width="18.42578125" customWidth="1"/>
+    <col min="1" max="15" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-    </row>
-    <row r="2" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>4</v>
       </c>
@@ -1198,7 +1183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -1215,17 +1200,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+    <row r="4" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-    </row>
-    <row r="6" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1235,12 +1220,12 @@
       <c r="C6" s="5">
         <v>3</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="26">
         <v>6</v>
       </c>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1250,48 +1235,48 @@
       <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="30"/>
-    </row>
-    <row r="8" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-    </row>
-    <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>4</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="20">
         <v>12</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-    </row>
-    <row r="11" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-    </row>
-    <row r="12" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B11:E11"/>
@@ -1309,24 +1294,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44D080D-8FD1-4A09-A541-CF81D00D5AF8}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="83.7109375" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="76.77734375" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
@@ -1349,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
@@ -1371,9 +1356,8 @@
       <c r="G2" s="8">
         <v>0</v>
       </c>
-      <c r="H2" s="17"/>
-    </row>
-    <row r="3" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
@@ -1395,9 +1379,8 @@
       <c r="G3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
@@ -1419,9 +1402,8 @@
       <c r="G4" s="8">
         <v>1</v>
       </c>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="5" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
@@ -1443,9 +1425,8 @@
       <c r="G5" s="8">
         <v>4</v>
       </c>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
@@ -1467,9 +1448,8 @@
       <c r="G6" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
@@ -1491,9 +1471,8 @@
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>91</v>
       </c>
@@ -1516,7 +1495,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
@@ -1538,9 +1517,8 @@
       <c r="G9" s="8">
         <v>6</v>
       </c>
-      <c r="H9" s="17"/>
-    </row>
-    <row r="10" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>75</v>
       </c>
@@ -1562,9 +1540,8 @@
       <c r="G10" s="8">
         <v>5</v>
       </c>
-      <c r="H10" s="17"/>
-    </row>
-    <row r="11" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>16</v>
       </c>
@@ -1586,9 +1563,8 @@
       <c r="G11" s="8">
         <v>2</v>
       </c>
-      <c r="H11" s="17"/>
-    </row>
-    <row r="12" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>17</v>
       </c>
@@ -1610,9 +1586,8 @@
       <c r="G12" s="8">
         <v>7</v>
       </c>
-      <c r="H12" s="17"/>
-    </row>
-    <row r="13" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
@@ -1634,9 +1609,8 @@
       <c r="G13" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>19</v>
       </c>
@@ -1658,9 +1632,8 @@
       <c r="G14" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>20</v>
       </c>
@@ -1682,9 +1655,8 @@
       <c r="G15" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="17"/>
-    </row>
-    <row r="16" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>69</v>
       </c>
@@ -1706,9 +1678,8 @@
       <c r="G16" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="17"/>
-    </row>
-    <row r="17" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>71</v>
       </c>
@@ -1730,9 +1701,8 @@
       <c r="G17" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>72</v>
       </c>
@@ -1754,9 +1724,8 @@
       <c r="G18" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="17"/>
-    </row>
-    <row r="19" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>70</v>
       </c>
@@ -1778,9 +1747,8 @@
       <c r="G19" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="31"/>
-    </row>
-    <row r="20" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>73</v>
       </c>
@@ -1802,9 +1770,8 @@
       <c r="G20" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>74</v>
       </c>
@@ -1826,9 +1793,8 @@
       <c r="G21" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="17"/>
-    </row>
-    <row r="22" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>21</v>
       </c>
@@ -1851,7 +1817,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>22</v>
       </c>
@@ -1874,7 +1840,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>23</v>
       </c>
@@ -1897,7 +1863,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>

--- a/module-3/instructions.xlsx
+++ b/module-3/instructions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saad Yousaf\Desktop\METU NCC\Courses\EEE 446\Lab\Lab 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\METU-NCC-Computer-Architecture\documents\module-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39EAD19-FC1C-49EF-A0E2-1D944771F780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1502D83E-FEBB-46C4-9C3A-BDF5F60E3AA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Structure" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="96">
   <si>
     <t>R-TYPE</t>
   </si>
@@ -133,12 +133,6 @@
     <t>Rd, Rs, C</t>
   </si>
   <si>
-    <t>Rd, Rs ,C</t>
-  </si>
-  <si>
-    <t>Rd, Rs ,D</t>
-  </si>
-  <si>
     <t>Add two registers and a carry (Cin)</t>
   </si>
   <si>
@@ -176,9 +170,6 @@
   </si>
   <si>
     <t>Branch if Rd not equal to Rs</t>
-  </si>
-  <si>
-    <t>Rd, Rs, Rt, Cin</t>
   </si>
   <si>
     <t>Logical shift left Rs and save into Rd with constant amount ( C )</t>
@@ -334,6 +325,18 @@
   </si>
   <si>
     <t>Set most significant 2-bits of Data Memory Address to least significant 2-bits of constant ( C )</t>
+  </si>
+  <si>
+    <t>CPI</t>
+  </si>
+  <si>
+    <t>3+C</t>
+  </si>
+  <si>
+    <t>Rd, Rs , C</t>
+  </si>
+  <si>
+    <t>Rd, Rs, D</t>
   </si>
 </sst>
 </file>
@@ -754,7 +757,16 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -868,16 +880,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F6B5456A-DBFF-4888-9B1C-58322DED1168}" name="Table2" displayName="Table2" ref="A1:G25" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:G25" xr:uid="{E04D101D-B61E-41ED-B6C0-1ACD0FC422DF}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5A964048-3E15-4135-885D-4125C7A581A4}" name="Instruction" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{146A1A74-9649-4D09-92B7-A1F5DD48F51D}" name="Type" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{6A4CA7B5-6ED4-4FFE-84AD-9B4C36B84DBE}" name="Operands" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{F344EC0B-69BF-43EA-BDD9-75301AC73BB8}" name="Description" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{D1BD6EE2-E062-4095-A0A2-61DF34131605}" name="Operation" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{5413D5F1-28D7-4C22-82B2-18DA6A5B039A}" name="Opcode" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{41B8368A-0277-42B0-A265-E86B2D895028}" name="OAP" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F6B5456A-DBFF-4888-9B1C-58322DED1168}" name="Table2" displayName="Table2" ref="A1:H25" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="A1:H25" xr:uid="{E04D101D-B61E-41ED-B6C0-1ACD0FC422DF}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{5A964048-3E15-4135-885D-4125C7A581A4}" name="Instruction" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{146A1A74-9649-4D09-92B7-A1F5DD48F51D}" name="Type" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{841FFD76-EBE6-48D2-B926-5382C76AC998}" name="CPI" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{6A4CA7B5-6ED4-4FFE-84AD-9B4C36B84DBE}" name="Operands" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{F344EC0B-69BF-43EA-BDD9-75301AC73BB8}" name="Description" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{D1BD6EE2-E062-4095-A0A2-61DF34131605}" name="Operation" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{5413D5F1-28D7-4C22-82B2-18DA6A5B039A}" name="Opcode" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{41B8368A-0277-42B0-A265-E86B2D895028}" name="OAP" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1152,12 +1165,12 @@
       <selection sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="15" width="18.44140625" customWidth="1"/>
+    <col min="1" max="15" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1166,7 +1179,7 @@
       <c r="D1" s="24"/>
       <c r="E1" s="25"/>
     </row>
-    <row r="2" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>4</v>
       </c>
@@ -1183,7 +1196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -1200,8 +1213,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>2</v>
       </c>
@@ -1210,7 +1223,7 @@
       <c r="D5" s="24"/>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1225,7 +1238,7 @@
       </c>
       <c r="E6" s="27"/>
     </row>
-    <row r="7" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1240,8 +1253,8 @@
       </c>
       <c r="E7" s="29"/>
     </row>
-    <row r="8" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>3</v>
       </c>
@@ -1250,7 +1263,7 @@
       <c r="D9" s="24"/>
       <c r="E9" s="25"/>
     </row>
-    <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>4</v>
       </c>
@@ -1261,7 +1274,7 @@
       <c r="D10" s="21"/>
       <c r="E10" s="22"/>
     </row>
-    <row r="11" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1272,11 +1285,11 @@
       <c r="D11" s="18"/>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B11:E11"/>
@@ -1294,24 +1307,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44D080D-8FD1-4A09-A541-CF81D00D5AF8}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="76.77734375" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="76.7109375" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
@@ -1319,275 +1333,311 @@
         <v>24</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>50</v>
+      <c r="C2" s="8">
+        <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="8">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="G2" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="8">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="E3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="8">
+        <v>36</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>50</v>
+      <c r="C4" s="8">
+        <v>4</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="8">
+        <v>37</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="8">
         <v>0</v>
       </c>
-      <c r="G4" s="8">
+      <c r="H4" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="8">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="E5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="8">
+        <v>41</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="8">
         <v>0</v>
       </c>
-      <c r="G5" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="8">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="E6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="8">
+        <v>40</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="8">
         <v>2</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="8">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="E7" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="8">
+        <v>38</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="8">
         <v>0</v>
       </c>
-      <c r="G7" s="8">
+      <c r="H7" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>92</v>
+      <c r="C8" s="8">
+        <v>4</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="8">
+        <v>91</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="8">
         <v>3</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="8">
+        <v>4</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="E9" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="8">
+        <v>39</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="8">
         <v>0</v>
       </c>
-      <c r="G9" s="8">
+      <c r="H9" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="8">
+        <v>4</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="E10" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="8">
+        <v>73</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="8">
         <v>0</v>
       </c>
-      <c r="G10" s="8">
+      <c r="H10" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="8">
+        <v>14</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="E11" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="8">
+        <v>42</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="8">
         <v>0</v>
       </c>
-      <c r="G11" s="8">
+      <c r="H11" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="10">
+        <v>16</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="8">
+      <c r="E12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="8">
         <v>0</v>
       </c>
-      <c r="G12" s="8">
+      <c r="H12" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
@@ -1595,45 +1645,51 @@
         <v>26</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="E13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="8">
+        <v>4</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="8">
-        <v>4</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="E14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="8">
+        <v>49</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="8">
         <v>5</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>20</v>
       </c>
@@ -1641,238 +1697,269 @@
         <v>26</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="8">
+      <c r="E15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="8">
         <v>6</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="8">
+      <c r="C16" s="10">
+        <v>5</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="8">
         <v>7</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="16">
+      <c r="C17" s="15">
+        <v>4</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="16">
         <v>8</v>
       </c>
-      <c r="G17" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="16">
+      <c r="C18" s="15">
+        <v>4</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="16">
         <v>9</v>
       </c>
-      <c r="G18" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="8">
+      <c r="C19" s="10">
+        <v>5</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="8">
         <v>10</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="16">
+      <c r="C20" s="15">
+        <v>4</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="16">
         <v>11</v>
       </c>
-      <c r="G20" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="14">
+      <c r="C21" s="14">
+        <v>4</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="14">
         <v>12</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="8">
+      <c r="C22" s="10">
+        <v>4</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="8">
         <v>13</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="8">
+      <c r="C23" s="10">
+        <v>4</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="8">
         <v>14</v>
       </c>
-      <c r="G23" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="8">
+      <c r="C24" s="10">
+        <v>4</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="8">
         <v>15</v>
       </c>
-      <c r="G24" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="16"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="F25" s="16"/>
-      <c r="G25" s="15"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/module-3/instructions.xlsx
+++ b/module-3/instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\METU-NCC-Computer-Architecture\documents\module-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1502D83E-FEBB-46C4-9C3A-BDF5F60E3AA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA137AA-260B-4D9B-81A5-B3C8D354B254}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Structure" sheetId="1" r:id="rId1"/>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>Rd, Rs, Rt</t>
-  </si>
-  <si>
-    <t>CONSTANT ( C )</t>
   </si>
   <si>
     <t>Rd, Rs, C</t>
@@ -337,6 +334,9 @@
   </si>
   <si>
     <t>Rd, Rs, D</t>
+  </si>
+  <si>
+    <t>CONSTANT (C)</t>
   </si>
 </sst>
 </file>
@@ -768,15 +768,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -792,6 +783,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -885,12 +885,12 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5A964048-3E15-4135-885D-4125C7A581A4}" name="Instruction" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{146A1A74-9649-4D09-92B7-A1F5DD48F51D}" name="Type" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{841FFD76-EBE6-48D2-B926-5382C76AC998}" name="CPI" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{6A4CA7B5-6ED4-4FFE-84AD-9B4C36B84DBE}" name="Operands" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{F344EC0B-69BF-43EA-BDD9-75301AC73BB8}" name="Description" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{D1BD6EE2-E062-4095-A0A2-61DF34131605}" name="Operation" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{5413D5F1-28D7-4C22-82B2-18DA6A5B039A}" name="Opcode" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{41B8368A-0277-42B0-A265-E86B2D895028}" name="OAP" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{841FFD76-EBE6-48D2-B926-5382C76AC998}" name="CPI" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{6A4CA7B5-6ED4-4FFE-84AD-9B4C36B84DBE}" name="Operands" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{F344EC0B-69BF-43EA-BDD9-75301AC73BB8}" name="Description" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{D1BD6EE2-E062-4095-A0A2-61DF34131605}" name="Operation" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{5413D5F1-28D7-4C22-82B2-18DA6A5B039A}" name="Opcode" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{41B8368A-0277-42B0-A265-E86B2D895028}" name="OAP" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1161,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:E11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,7 +1249,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="E7" s="29"/>
     </row>
@@ -1279,7 +1279,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -1309,16 +1309,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44D080D-8FD1-4A09-A541-CF81D00D5AF8}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="76.7109375" customWidth="1"/>
     <col min="6" max="6" width="29.85546875" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
@@ -1333,7 +1333,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>7</v>
@@ -1365,10 +1365,10 @@
         <v>32</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" s="8">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>4</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="8">
         <v>1</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1417,10 +1417,10 @@
         <v>32</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" s="8">
         <v>0</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="8">
         <v>0</v>
@@ -1466,19 +1466,19 @@
         <v>4</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="8">
         <v>2</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1495,10 +1495,10 @@
         <v>32</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" s="8">
         <v>0</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="8" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>27</v>
@@ -1518,19 +1518,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="G8" s="8">
         <v>3</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1547,10 +1547,10 @@
         <v>32</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="8">
         <v>0</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="10" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>25</v>
@@ -1573,10 +1573,10 @@
         <v>32</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>74</v>
       </c>
       <c r="G10" s="8">
         <v>0</v>
@@ -1599,10 +1599,10 @@
         <v>32</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11" s="8">
         <v>0</v>
@@ -1625,10 +1625,10 @@
         <v>32</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="8">
         <v>0</v>
@@ -1645,22 +1645,22 @@
         <v>26</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" s="8">
         <v>4</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1671,22 +1671,22 @@
         <v>26</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G14" s="8">
         <v>5</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1697,27 +1697,27 @@
         <v>26</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" s="8">
         <v>6</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>26</v>
@@ -1726,24 +1726,24 @@
         <v>5</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G16" s="8">
         <v>7</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>26</v>
@@ -1752,24 +1752,24 @@
         <v>4</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G17" s="16">
         <v>8</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>26</v>
@@ -1778,24 +1778,24 @@
         <v>4</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G18" s="16">
         <v>9</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>26</v>
@@ -1804,24 +1804,24 @@
         <v>5</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19" s="8">
         <v>10</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>26</v>
@@ -1830,24 +1830,24 @@
         <v>4</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G20" s="16">
         <v>11</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>26</v>
@@ -1856,19 +1856,19 @@
         <v>4</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" s="14">
         <v>12</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1882,19 +1882,19 @@
         <v>4</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G22" s="8">
         <v>13</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1908,19 +1908,19 @@
         <v>4</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G23" s="8">
         <v>14</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1934,19 +1934,19 @@
         <v>4</v>
       </c>
       <c r="D24" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="G24" s="8">
         <v>15</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1955,7 +1955,7 @@
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
       <c r="E25" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
